--- a/biology/Médecine/Syndrome_néphrotique/Syndrome_néphrotique.xlsx
+++ b/biology/Médecine/Syndrome_néphrotique/Syndrome_néphrotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome néphrotique est une affection rénale. Il est la résultante d'une atteinte des capillaires glomérulaires qui voient augmenter leur perméabilité à l'égard des protéines. Les protéines s'échappent dans les urines (protéinurie), ce qui réduit leur concentration dans le plasma (hypoprotidémie) et partant, réduit la pression oncotique, ce qui se traduit par une accumulation de liquide interstitiel (œdème). L'hypoprotéinémie induit une protéosynthèse hépatique accrue résultant en une production d'albumine mais également en une synthèse accrue de lipoprotéines (LDL, VLDL), ce qui, avec la diminution de la lipoprotéine lipase, induit une hyperlipidémie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome néphrotique est une affection rénale. Il est la résultante d'une atteinte des capillaires glomérulaires qui voient augmenter leur perméabilité à l'égard des protéines. Les protéines s'échappent dans les urines (protéinurie), ce qui réduit leur concentration dans le plasma (hypoprotidémie) et partant, réduit la pression oncotique, ce qui se traduit par une accumulation de liquide interstitiel (œdème). L'hypoprotéinémie induit une protéosynthèse hépatique accrue résultant en une production d'albumine mais également en une synthèse accrue de lipoprotéines (LDL, VLDL), ce qui, avec la diminution de la lipoprotéine lipase, induit une hyperlipidémie.
 Il existe une Association des Malades d'un Syndrome Néphrotique (AMSN) (https://amsn.ambitionrecherche.fr/) dont les buts sont de créer du lien entre patients et d'aider la recherche sur cette maladie.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le syndrome néphrotique a une definition biologique, associant obligatoirement :
 une protéinurie &gt; 3 g / 24 h (ou &gt; 200 mg/mmol de créatinine ou &gt; 50 mg/kg/jour chez l'enfant) ;
@@ -523,7 +537,7 @@
 hyper α2-globulinémie ;
 hypo α1-globulinémie.
 hypo-gamma-globulinémie
-Le syndrome néphrotique est dit[1] :
+Le syndrome néphrotique est dit :
 pur s'il ne s'accompagne pas d'hématurie, ni d'hypertension artérielle, ni d'insuffisance rénale organique et que la protéinurie est sélective ;
 impur dans le cas contraire.</t>
         </is>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ultrafiltration du sang qui va donner l'urine primitive se fait dans le glomérule. Par un mécanisme physique (pression hydrostatique, pression oncotique) et biologique (sélectivité de la membrane glomérulaire aux composants sanguins), le plasma est filtré à travers la membrane basale glomérulaire (MBG) et les prolongements podocytaires qui la tapissent pour former l'urine primitive, laquelle sera ensuite successivement modifiée par les différentes structures rénales pour donner l'urine définitive.
 Le syndrome néphrotique est dû à une anomalie anatomique ou fonctionnelle de la membrane basale glomérulaire, qui est normalement imperméable aux protéines à partir d'un certain poids moléculaire (60,000 Daltons, ou 60 kDa). La perte de cette sélectivité entraîne le passage de protéines dans les urines (qui apparaît lorsque les capacités physiologiques de réabsorption tubulaire des protéines sont dépassées), et donc la protéinurie et l'hypoprotidémie (malgré une synthèse accrue de protéines par le foie).
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le diagnostic est biologique :
 une bandelette réactive à l'albumine dépiste la protéinurie ;
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,15 +645,17 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypoprotidémie est à la base de la plupart des conséquences cliniques du syndrome néphrotique :
 infections, lorsqu'il y a fuite d'immunoglobulines et de complément ;
 toxicité accrue des médicaments qui se lient à l'albumine, par augmentation de leur fraction libre (la fraction liée à l'albumine est moins ou pas active : la diminution de la concentration d'albumine est responsable d'une augmentation du taux libre, et donc actif, du médicament) ;
-thromboses vasculaires, par perte de protéines anti-coagulantes (antithrombine III en particulier[2]) et surproduction de facteurs procoagulants[3],[4]. La maladie thromboembolique complique un quart des syndromes néphrotiques de l'adulte[5].
+thromboses vasculaires, par perte de protéines anti-coagulantes (antithrombine III en particulier) et surproduction de facteurs procoagulants,. La maladie thromboembolique complique un quart des syndromes néphrotiques de l'adulte.
 dyslipidémies (augmentation de la cholestérolémie et de la triglycéridémie par stimulation du foie).
-L'hyperhydratation extracellulaire, qui se manifeste cliniquement par les œdèmes, est liée à une diminution de la pression oncotique des protéines intravasculaires ce qui permet la fuite de sodium et d’eau vers le liquide interstitiel. Une hypovolémie efficace peut être éventuellement observée, elle stimule les systèmes participant à la rétention hydrosodée (système rénine-angiotensine et système sympathique)[6].
-D'autres études[réf. nécessaire] auraient montré, et contrairement à l'idée couramment admise, que l'hyperhydratation extracellulaire (notamment du secteur interstitiel) observée dans ce syndrome n'est pas causée par la diminution de la pression oncotique plasmatique, la pression oncotique interstitielle des patients néphrotiques étant diminuée parallèlement. Elle est liée à une augmentation de la rétention du sodium indépendante de l'aldostérone[réf. nécessaire] et une dysrégulation de la conductivité hydraulique des parois capillaires entraînant respectivement une hyperhydratation extracellulaire et une fuite d'eau dans le secteur interstitiel (œdèmes, ascite, pleurésie, anasarque). Les mécanismes biologiques et physiologiques ne sont pas encore bien connus et élucidés[7].
+L'hyperhydratation extracellulaire, qui se manifeste cliniquement par les œdèmes, est liée à une diminution de la pression oncotique des protéines intravasculaires ce qui permet la fuite de sodium et d’eau vers le liquide interstitiel. Une hypovolémie efficace peut être éventuellement observée, elle stimule les systèmes participant à la rétention hydrosodée (système rénine-angiotensine et système sympathique).
+D'autres études[réf. nécessaire] auraient montré, et contrairement à l'idée couramment admise, que l'hyperhydratation extracellulaire (notamment du secteur interstitiel) observée dans ce syndrome n'est pas causée par la diminution de la pression oncotique plasmatique, la pression oncotique interstitielle des patients néphrotiques étant diminuée parallèlement. Elle est liée à une augmentation de la rétention du sodium indépendante de l'aldostérone[réf. nécessaire] et une dysrégulation de la conductivité hydraulique des parois capillaires entraînant respectivement une hyperhydratation extracellulaire et une fuite d'eau dans le secteur interstitiel (œdèmes, ascite, pleurésie, anasarque). Les mécanismes biologiques et physiologiques ne sont pas encore bien connus et élucidés.
 </t>
         </is>
       </c>
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +684,9 @@
           <t>Bilan de première intention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce premier bilan permet de diagnostiquer les causes les plus fréquentes de syndrome néphrotique et de poser l'indication d'une biopsie rénale. Il comprend :
 un interrogatoire, un examen clinique, un bilan des prises médicamenteuses (ce qui permet de rechercher une néphropathie héréditaire, ou un syndrome néphrotique lié à une prise médicamenteuse) ;
@@ -683,7 +705,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_n%C3%A9phrotique</t>
+          <t>Syndrome_néphrotique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -701,7 +723,9 @@
           <t>Maladies responsables de syndrome néphrotique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amylose : par dépôt de protéines amyloïdes anormales dans les glomérules.
 Syndrome néphrotique idiopathique de l'enfant (ou de l'adulte) : par perte des charges négatives de la membrane basale glomérulaire qui normalement repoussent les protéines, elles aussi chargées négativement. (D'après les études épidémiologiques récentes[réf. nécessaire], il y aurait autant d'enfants que d'adultes atteint d'un syndrome néphrotique idiopathique).
